--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2709684.85886641</v>
+        <v>-2710397.463340451</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566237</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176722</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>173.195053786583</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384209</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.532226339101655</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012118</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>102.5087651703849</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705462</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851679</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134819</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437506</v>
+        <v>58.89840834437501</v>
       </c>
       <c r="V12" t="n">
-        <v>188.5623770505817</v>
+        <v>62.31927159084708</v>
       </c>
       <c r="W12" t="n">
-        <v>188.5623770505817</v>
+        <v>88.37493425245643</v>
       </c>
       <c r="X12" t="n">
-        <v>38.9832651149155</v>
+        <v>38.98326511491544</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947051</v>
+        <v>90.03723077366087</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650174</v>
+        <v>25.09353465650168</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412755</v>
+        <v>57.10576830412749</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605271</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226099</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.7793658598948</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368742</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961331</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566237</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>185.6598276087653</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718777</v>
+        <v>16.53078872718774</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845969</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
         <v>181.453064970151</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.67472876989172</v>
+        <v>188.5623770505817</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810785</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>6.84650648066847</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>63.84373706249291</v>
       </c>
       <c r="S15" t="n">
+        <v>13.25780256851673</v>
+      </c>
+      <c r="T15" t="n">
+        <v>36.64054962134813</v>
+      </c>
+      <c r="U15" t="n">
         <v>188.5623770505817</v>
       </c>
-      <c r="T15" t="n">
-        <v>36.64054962134816</v>
-      </c>
-      <c r="U15" t="n">
-        <v>58.89840834437504</v>
-      </c>
       <c r="V15" t="n">
-        <v>62.31927159084711</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="W15" t="n">
-        <v>188.5623770505817</v>
+        <v>88.37493425245643</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491547</v>
+        <v>38.98326511491544</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.31343075771434</v>
+        <v>45.05463680947045</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650171</v>
+        <v>25.09353465650168</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412752</v>
+        <v>57.10576830412749</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605269</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226099</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989477</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368739</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961328</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.66264858577281</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C17" t="n">
         <v>52.78090558911759</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>101.8700872086293</v>
       </c>
       <c r="G18" t="n">
         <v>148.7444246896586</v>
@@ -1941,10 +1941,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705462</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>118.8051765801692</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>106.7810505784293</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>188.5623770505817</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>124.5600813154269</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.58488881655549</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705462</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.973210650169312</v>
+        <v>6.84650648066847</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>8.997433817177589</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325355</v>
+        <v>36.68353794325356</v>
       </c>
       <c r="V26" t="n">
         <v>107.4128069411193</v>
@@ -2688,19 +2688,19 @@
         <v>1.503222277870605</v>
       </c>
       <c r="U27" t="n">
-        <v>227.2446683178183</v>
+        <v>23.76108100089748</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.18194424736956</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437917</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992929</v>
+        <v>213.4008967829138</v>
       </c>
     </row>
     <row r="28">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>111.8995022122421</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.84650648066847</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>53.2376069089789</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437917</v>
+        <v>49.6813493536912</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992929</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3032,13 +3032,13 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E32" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
@@ -3047,7 +3047,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036448</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.0423609020312</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T32" t="n">
-        <v>8.99743381717756</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325353</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>140.5942146166798</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>112.2483781688927</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870576</v>
+        <v>1.503222277870548</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089746</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736953</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897888</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437889</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992901</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.84650648066847</v>
+        <v>3.039395192897705</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.75373572632657</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>65.67665828419265</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705462</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.216564654675916</v>
+        <v>6.84650648066847</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.96888962557823</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3828,7 +3828,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.84650648066847</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>28.88834082850936</v>
       </c>
     </row>
     <row r="43">
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>63.83705951265165</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>235.6646313524513</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>583.4423962424144</v>
+        <v>190.0294889383728</v>
       </c>
       <c r="C11" t="n">
-        <v>409.830428508451</v>
+        <v>190.0294889383728</v>
       </c>
       <c r="D11" t="n">
-        <v>248.7773877835297</v>
+        <v>190.0294889383728</v>
       </c>
       <c r="E11" t="n">
-        <v>248.7773877835297</v>
+        <v>190.0294889383728</v>
       </c>
       <c r="F11" t="n">
-        <v>248.7773877835297</v>
+        <v>190.0294889383728</v>
       </c>
       <c r="G11" t="n">
-        <v>248.7773877835297</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H11" t="n">
-        <v>78.3851574305537</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
         <v>115.6457740567086</v>
@@ -5045,46 +5045,46 @@
         <v>115.6457740567086</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3225273367844</v>
+        <v>162.4191122870027</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935361</v>
+        <v>349.0958655670785</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267743</v>
+        <v>424.4831155003167</v>
       </c>
       <c r="O11" t="n">
-        <v>504.828715160204</v>
+        <v>504.8287151602038</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381379</v>
+        <v>666.4818518381378</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="R11" t="n">
-        <v>744.6209967486888</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="S11" t="n">
-        <v>744.6209967486888</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="T11" t="n">
-        <v>744.6209967486888</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="U11" t="n">
-        <v>744.6209967486888</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="V11" t="n">
-        <v>744.6209967486888</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="W11" t="n">
-        <v>583.4423962424144</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="X11" t="n">
-        <v>583.4423962424144</v>
+        <v>570.9635839900529</v>
       </c>
       <c r="Y11" t="n">
-        <v>583.4423962424144</v>
+        <v>380.4965364642129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>171.6172627069148</v>
+        <v>24.36630551739073</v>
       </c>
       <c r="C12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
         <v>53.07705719635123</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681697</v>
+        <v>170.4486221681696</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287437</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110307</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023266</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905404</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905404</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243619</v>
+        <v>556.8667975647003</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411819</v>
+        <v>366.3997500388602</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791869</v>
+        <v>306.9064082768653</v>
       </c>
       <c r="V12" t="n">
-        <v>446.9710798533468</v>
+        <v>243.9576490941915</v>
       </c>
       <c r="W12" t="n">
-        <v>256.5040323275067</v>
+        <v>154.6900387381749</v>
       </c>
       <c r="X12" t="n">
-        <v>217.1269968578951</v>
+        <v>115.3130032685633</v>
       </c>
       <c r="Y12" t="n">
-        <v>171.6172627069148</v>
+        <v>24.36630551739073</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>47.90051924715249</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>84.18749227835931</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F13" t="n">
-        <v>123.1962317134067</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="G13" t="n">
-        <v>123.1962317134067</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="H13" t="n">
-        <v>123.1962317134067</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="I13" t="n">
-        <v>123.1962317134067</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="J13" t="n">
-        <v>180.7159227800182</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="K13" t="n">
-        <v>180.7159227800182</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="L13" t="n">
-        <v>325.4541622352761</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="M13" t="n">
-        <v>477.0592089874764</v>
+        <v>50.28372067334752</v>
       </c>
       <c r="N13" t="n">
-        <v>477.0592089874764</v>
+        <v>210.497952197112</v>
       </c>
       <c r="O13" t="n">
-        <v>477.0592089874764</v>
+        <v>349.9613012161996</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612866</v>
+        <v>468.6318884260465</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612866</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577495</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S13" t="n">
-        <v>436.216321211156</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272643</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791736</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701889</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980485</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456503</v>
+        <v>54.28865025456497</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.0891882509859</v>
+        <v>202.6201695668397</v>
       </c>
       <c r="C14" t="n">
-        <v>185.4772205170226</v>
+        <v>202.6201695668397</v>
       </c>
       <c r="D14" t="n">
-        <v>185.4772205170226</v>
+        <v>202.6201695668397</v>
       </c>
       <c r="E14" t="n">
-        <v>185.4772205170226</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F14" t="n">
-        <v>185.4772205170226</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G14" t="n">
-        <v>185.4772205170226</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H14" t="n">
         <v>15.08499016404653</v>
@@ -5279,10 +5279,10 @@
         <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>161.7146900831661</v>
+        <v>267.4711326400901</v>
       </c>
       <c r="L14" t="n">
-        <v>208.4880283134601</v>
+        <v>314.2444708703841</v>
       </c>
       <c r="M14" t="n">
         <v>395.164781593536</v>
@@ -5312,16 +5312,16 @@
         <v>737.5517418112279</v>
       </c>
       <c r="V14" t="n">
-        <v>593.5617071803219</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="W14" t="n">
-        <v>593.5617071803219</v>
+        <v>576.3731413049535</v>
       </c>
       <c r="X14" t="n">
-        <v>410.2757829680482</v>
+        <v>393.0872170926798</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.0891882509859</v>
+        <v>202.6201695668397</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.35437081744594</v>
+        <v>77.35437081744591</v>
       </c>
       <c r="C15" t="n">
         <v>68.07305546410171</v>
@@ -5358,19 +5358,19 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635123</v>
+        <v>53.07705719635124</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681696</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P15" t="n">
         <v>754.2495082023266</v>
@@ -5379,28 +5379,28 @@
         <v>747.3338450905403</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905403</v>
+        <v>682.8452217950929</v>
       </c>
       <c r="S15" t="n">
-        <v>556.8667975647003</v>
+        <v>669.4535020289144</v>
       </c>
       <c r="T15" t="n">
-        <v>519.8561413815203</v>
+        <v>632.4428458457345</v>
       </c>
       <c r="U15" t="n">
-        <v>460.3627996195253</v>
+        <v>441.9757983198944</v>
       </c>
       <c r="V15" t="n">
-        <v>397.4140404368515</v>
+        <v>251.5087507940544</v>
       </c>
       <c r="W15" t="n">
-        <v>206.9469929110114</v>
+        <v>162.2411404380377</v>
       </c>
       <c r="X15" t="n">
-        <v>167.5699574413998</v>
+        <v>122.8641049684262</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.35437081744594</v>
+        <v>77.35437081744591</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.08499016404653</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404653</v>
+        <v>47.90051924715254</v>
       </c>
       <c r="E16" t="n">
-        <v>15.08499016404653</v>
+        <v>84.1874922783594</v>
       </c>
       <c r="F16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134068</v>
       </c>
       <c r="G16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134068</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134068</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134068</v>
       </c>
       <c r="J16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134068</v>
       </c>
       <c r="K16" t="n">
-        <v>38.14202294023491</v>
+        <v>123.1962317134068</v>
       </c>
       <c r="L16" t="n">
-        <v>38.14202294023491</v>
+        <v>267.9344711686648</v>
       </c>
       <c r="M16" t="n">
-        <v>189.7470696924353</v>
+        <v>267.9344711686648</v>
       </c>
       <c r="N16" t="n">
-        <v>349.9613012161997</v>
+        <v>428.1487026924293</v>
       </c>
       <c r="O16" t="n">
-        <v>349.9613012161997</v>
+        <v>428.1487026924293</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260467</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612863</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577492</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111558</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272642</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791735</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701888</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980479</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X16" t="n">
-        <v>54.288650254565</v>
+        <v>54.28865025456497</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340415</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844278</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438559</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372146</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019092</v>
       </c>
       <c r="G17" t="n">
         <v>65.17929883267294</v>
@@ -5510,28 +5510,28 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897392</v>
       </c>
       <c r="J17" t="n">
-        <v>38.44864261669484</v>
+        <v>70.94848926897392</v>
       </c>
       <c r="K17" t="n">
-        <v>38.44864261669484</v>
+        <v>70.94848926897392</v>
       </c>
       <c r="L17" t="n">
-        <v>85.2219808469889</v>
+        <v>117.721827499268</v>
       </c>
       <c r="M17" t="n">
-        <v>166.1422915701407</v>
+        <v>198.6421382224198</v>
       </c>
       <c r="N17" t="n">
-        <v>241.5295415033789</v>
+        <v>274.029388155658</v>
       </c>
       <c r="O17" t="n">
-        <v>275.8062251368086</v>
+        <v>308.3060717890877</v>
       </c>
       <c r="P17" t="n">
-        <v>275.8062251368086</v>
+        <v>308.3060717890877</v>
       </c>
       <c r="Q17" t="n">
         <v>462.4829784168845</v>
@@ -5555,10 +5555,10 @@
         <v>689.6767164338453</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059212</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.970556707549</v>
+        <v>540.9705567075487</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>627.3286162216825</v>
+        <v>568.7979921636052</v>
       </c>
       <c r="C18" t="n">
-        <v>627.3286162216825</v>
+        <v>568.7979921636052</v>
       </c>
       <c r="D18" t="n">
-        <v>627.3286162216825</v>
+        <v>568.7979921636052</v>
       </c>
       <c r="E18" t="n">
-        <v>453.765412343097</v>
+        <v>395.2347882850196</v>
       </c>
       <c r="F18" t="n">
-        <v>453.765412343097</v>
+        <v>292.3357102965051</v>
       </c>
       <c r="G18" t="n">
-        <v>303.5185187171792</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635125</v>
+        <v>53.07705719635123</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681696</v>
@@ -5604,10 +5604,10 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110305</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P18" t="n">
         <v>754.2495082023266</v>
@@ -5622,22 +5622,22 @@
         <v>747.3338450905403</v>
       </c>
       <c r="T18" t="n">
-        <v>627.3286162216825</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="U18" t="n">
-        <v>627.3286162216825</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="V18" t="n">
-        <v>627.3286162216825</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="W18" t="n">
-        <v>627.3286162216825</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="X18" t="n">
-        <v>627.3286162216825</v>
+        <v>747.3338450905403</v>
       </c>
       <c r="Y18" t="n">
-        <v>627.3286162216825</v>
+        <v>747.3338450905403</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.533537934041</v>
+        <v>463.5335379340416</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844272</v>
+        <v>410.2194918844279</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438556</v>
+        <v>369.4643728438561</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372147</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019091</v>
+        <v>187.8189404019094</v>
       </c>
       <c r="G20" t="n">
         <v>65.17929883267294</v>
@@ -5747,31 +5747,31 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897392</v>
       </c>
       <c r="J20" t="n">
-        <v>38.44864261669484</v>
+        <v>70.94848926897392</v>
       </c>
       <c r="K20" t="n">
-        <v>38.44864261669484</v>
+        <v>70.94848926897392</v>
       </c>
       <c r="L20" t="n">
-        <v>85.2219808469889</v>
+        <v>117.721827499268</v>
       </c>
       <c r="M20" t="n">
-        <v>166.1422915701407</v>
+        <v>198.6421382224198</v>
       </c>
       <c r="N20" t="n">
-        <v>241.5295415033789</v>
+        <v>274.029388155658</v>
       </c>
       <c r="O20" t="n">
-        <v>275.8062251368086</v>
+        <v>308.3060717890877</v>
       </c>
       <c r="P20" t="n">
-        <v>462.4829784168845</v>
+        <v>308.3060717890877</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4829784168845</v>
+        <v>494.9828250691635</v>
       </c>
       <c r="R20" t="n">
         <v>564.0214906197996</v>
@@ -5786,16 +5786,16 @@
         <v>754.2495082023266</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557698</v>
+        <v>730.5573952557702</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338447</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059212</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075488</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>431.0485336097236</v>
+        <v>175.9327025130202</v>
       </c>
       <c r="C21" t="n">
-        <v>241.6362593426873</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D21" t="n">
-        <v>241.6362593426873</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E21" t="n">
         <v>68.07305546410171</v>
@@ -5865,16 +5865,16 @@
         <v>556.8667975647003</v>
       </c>
       <c r="V21" t="n">
-        <v>556.8667975647003</v>
+        <v>366.3997500388602</v>
       </c>
       <c r="W21" t="n">
-        <v>556.8667975647003</v>
+        <v>366.3997500388602</v>
       </c>
       <c r="X21" t="n">
-        <v>431.0485336097236</v>
+        <v>175.9327025130202</v>
       </c>
       <c r="Y21" t="n">
-        <v>431.0485336097236</v>
+        <v>175.9327025130202</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340409</v>
+        <v>463.5335379340405</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844268</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438557</v>
+        <v>369.464372843855</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372137</v>
       </c>
       <c r="F23" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G23" t="n">
         <v>65.17929883267291</v>
@@ -5987,31 +5987,31 @@
         <v>70.9484892689739</v>
       </c>
       <c r="J23" t="n">
-        <v>257.6252425490495</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="K23" t="n">
-        <v>257.6252425490495</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="L23" t="n">
-        <v>304.3985807793435</v>
+        <v>117.721827499268</v>
       </c>
       <c r="M23" t="n">
-        <v>385.3188915024954</v>
+        <v>198.6421382224198</v>
       </c>
       <c r="N23" t="n">
-        <v>460.7061414357336</v>
+        <v>274.029388155658</v>
       </c>
       <c r="O23" t="n">
-        <v>494.9828250691633</v>
+        <v>308.3060717890877</v>
       </c>
       <c r="P23" t="n">
-        <v>531.699080096661</v>
+        <v>308.3060717890877</v>
       </c>
       <c r="Q23" t="n">
-        <v>531.699080096661</v>
+        <v>462.4829784168837</v>
       </c>
       <c r="R23" t="n">
-        <v>633.2375922995761</v>
+        <v>564.0214906197988</v>
       </c>
       <c r="S23" t="n">
         <v>633.2375922995761</v>
@@ -6023,16 +6023,16 @@
         <v>754.2495082023258</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557695</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338445</v>
+        <v>689.6767164338446</v>
       </c>
       <c r="X23" t="n">
         <v>626.6887139059204</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075478</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="C24" t="n">
-        <v>562.8440918644114</v>
+        <v>557.9215708235032</v>
       </c>
       <c r="D24" t="n">
-        <v>402.0639756254432</v>
+        <v>397.1414545845349</v>
       </c>
       <c r="E24" t="n">
-        <v>228.5007717468576</v>
+        <v>223.5782507059494</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410169</v>
+        <v>63.15053442319348</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410169</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410169</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410169</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404652</v>
@@ -6087,31 +6087,31 @@
         <v>754.2495082023258</v>
       </c>
       <c r="Q24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="R24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="S24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="T24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="U24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="W24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="X24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="Y24" t="n">
-        <v>752.2563661314477</v>
+        <v>747.3338450905395</v>
       </c>
     </row>
     <row r="25">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792739</v>
+        <v>882.8924400792727</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962491</v>
+        <v>757.3316491962478</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471548</v>
+        <v>597.7236336471534</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693963</v>
+        <v>406.074873069395</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577073</v>
+        <v>198.629559657706</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662787</v>
+        <v>63.72957914662649</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
@@ -6227,13 +6227,13 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191344</v>
+        <v>926.3413643191342</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6257,19 +6257,19 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998504</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6336,16 +6336,16 @@
         <v>791.8422880327876</v>
       </c>
       <c r="U27" t="n">
-        <v>562.3022190248903</v>
+        <v>767.8411961126891</v>
       </c>
       <c r="V27" t="n">
-        <v>319.2225009285244</v>
+        <v>740.3846867719118</v>
       </c>
       <c r="W27" t="n">
-        <v>49.82393165881568</v>
+        <v>470.9861175022031</v>
       </c>
       <c r="X27" t="n">
-        <v>45.93914603110061</v>
+        <v>251.4781231188995</v>
       </c>
       <c r="Y27" t="n">
         <v>35.92166172201684</v>
@@ -6382,25 +6382,25 @@
         <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2273068586712</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L28" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224439</v>
+        <v>180.8898523171615</v>
       </c>
       <c r="Q28" t="n">
         <v>266.2898381224439</v>
@@ -6421,10 +6421,10 @@
         <v>125.7908590024696</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398207</v>
+        <v>48.17092928398206</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6330719706388</v>
+        <v>39.63307197063879</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6440,43 +6440,43 @@
         <v>1021.012157971341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792738</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962485</v>
+        <v>757.3316491962489</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471541</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693957</v>
+        <v>406.074873069396</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577066</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662719</v>
+        <v>63.72957914662747</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847226</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629846</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.088746694631</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191352</v>
+        <v>926.3413643191346</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153726</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688508</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436484</v>
@@ -6485,7 +6485,7 @@
         <v>1777.662612870716</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100843</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
         <v>1781.898883169498</v>
@@ -6494,13 +6494,13 @@
         <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
         <v>1627.258702662881</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998504</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
         <v>1353.778677628126</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>672.7070563209929</v>
+        <v>225.3339359890531</v>
       </c>
       <c r="C30" t="n">
-        <v>483.2947820539566</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D30" t="n">
-        <v>322.5146658149883</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E30" t="n">
-        <v>148.9514619364028</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432157</v>
+        <v>73.91372875432155</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261399</v>
@@ -6561,31 +6561,31 @@
         <v>793.360694374071</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.360694374071</v>
+        <v>786.4450312622847</v>
       </c>
       <c r="R30" t="n">
-        <v>793.360694374071</v>
+        <v>786.4450312622847</v>
       </c>
       <c r="S30" t="n">
-        <v>793.360694374071</v>
+        <v>786.4450312622847</v>
       </c>
       <c r="T30" t="n">
-        <v>791.8422880327876</v>
+        <v>784.9266249210012</v>
       </c>
       <c r="U30" t="n">
-        <v>767.8411961126891</v>
+        <v>760.9255330009028</v>
       </c>
       <c r="V30" t="n">
-        <v>740.3846867719118</v>
+        <v>733.4690236601255</v>
       </c>
       <c r="W30" t="n">
-        <v>686.6093262577917</v>
+        <v>679.6936631460053</v>
       </c>
       <c r="X30" t="n">
-        <v>682.7245406300767</v>
+        <v>629.5104819806606</v>
       </c>
       <c r="Y30" t="n">
-        <v>672.7070563209929</v>
+        <v>403.8697889159882</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K31" t="n">
         <v>180.9116247530573</v>
       </c>
       <c r="L31" t="n">
-        <v>266.289838122444</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="M31" t="n">
         <v>266.289838122444</v>
@@ -6661,10 +6661,10 @@
         <v>48.17092928398208</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063881</v>
+        <v>39.6330719706388</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792735</v>
+        <v>882.8924400792731</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962483</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471542</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577065</v>
       </c>
       <c r="H32" t="n">
-        <v>63.7295791466274</v>
+        <v>63.72957914662742</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629838</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946302</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6716,22 +6716,22 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R32" t="n">
         <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6740,7 +6740,7 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672.707056320993</v>
+        <v>672.7070563209933</v>
       </c>
       <c r="C33" t="n">
-        <v>530.6926981223265</v>
+        <v>483.294782053957</v>
       </c>
       <c r="D33" t="n">
         <v>369.9125818833583</v>
@@ -6810,19 +6810,19 @@
         <v>791.8422880327877</v>
       </c>
       <c r="U33" t="n">
-        <v>767.8411961126892</v>
+        <v>767.8411961126893</v>
       </c>
       <c r="V33" t="n">
-        <v>740.3846867719119</v>
+        <v>740.384686771912</v>
       </c>
       <c r="W33" t="n">
-        <v>686.6093262577918</v>
+        <v>686.609326257792</v>
       </c>
       <c r="X33" t="n">
-        <v>682.7245406300768</v>
+        <v>682.7245406300769</v>
       </c>
       <c r="Y33" t="n">
-        <v>672.707056320993</v>
+        <v>672.7070563209933</v>
       </c>
     </row>
     <row r="34">
@@ -6856,49 +6856,49 @@
         <v>35.92166172201685</v>
       </c>
       <c r="J34" t="n">
-        <v>121.2998750914033</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2898381224438</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224438</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224438</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224438</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224438</v>
+        <v>210.1709648111473</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224438</v>
+        <v>210.1709648111473</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695576</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398202</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063877</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201685</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.011976583746</v>
+        <v>623.0119765837461</v>
       </c>
       <c r="C35" t="n">
         <v>544.0768043248354</v>
@@ -6926,61 +6926,61 @@
         <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516584</v>
+        <v>51.5889048651658</v>
       </c>
       <c r="J35" t="n">
-        <v>51.58890486516584</v>
+        <v>244.942416002927</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4427153950484</v>
+        <v>244.942416002927</v>
       </c>
       <c r="L35" t="n">
-        <v>567.2965259249311</v>
+        <v>291.715754233221</v>
       </c>
       <c r="M35" t="n">
-        <v>762.5382483485685</v>
+        <v>372.6360649563729</v>
       </c>
       <c r="N35" t="n">
-        <v>837.9254982818067</v>
+        <v>630.4898754862556</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2021819152363</v>
+        <v>664.7665591196853</v>
       </c>
       <c r="P35" t="n">
-        <v>872.2021819152363</v>
+        <v>669.9517276947136</v>
       </c>
       <c r="Q35" t="n">
-        <v>872.2021819152363</v>
+        <v>850.5121113040015</v>
       </c>
       <c r="R35" t="n">
-        <v>948.6294283204196</v>
+        <v>926.9393577091847</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7342642024651</v>
+        <v>971.0441935912302</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.520338742662</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114403</v>
+        <v>926.0185337114406</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742193</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07012156655</v>
+        <v>726.0701215665501</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.4567783467307</v>
+        <v>371.0290620639748</v>
       </c>
       <c r="C36" t="n">
-        <v>342.0445040796944</v>
+        <v>181.6167877969386</v>
       </c>
       <c r="D36" t="n">
-        <v>181.2643878407262</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2643878407262</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
         <v>58.82873859027502</v>
@@ -7035,31 +7035,31 @@
         <v>778.2757042100245</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="R36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="S36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="T36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="U36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="V36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="W36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="X36" t="n">
-        <v>771.3600410982382</v>
+        <v>775.2056080555824</v>
       </c>
       <c r="Y36" t="n">
-        <v>709.9926312736659</v>
+        <v>549.56491499091</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837464</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248358</v>
       </c>
       <c r="D38" t="n">
         <v>477.7005590749671</v>
@@ -7160,64 +7160,64 @@
         <v>377.2770891590289</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144267</v>
+        <v>244.8128742144266</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516584</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>174.7403346447167</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="K38" t="n">
-        <v>432.5941451745992</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="L38" t="n">
-        <v>479.3674834048933</v>
+        <v>472.0439932256143</v>
       </c>
       <c r="M38" t="n">
-        <v>560.2877941280451</v>
+        <v>588.0604351481664</v>
       </c>
       <c r="N38" t="n">
-        <v>635.6750440612833</v>
+        <v>663.4476850814046</v>
       </c>
       <c r="O38" t="n">
-        <v>669.951727694713</v>
+        <v>921.3014956112874</v>
       </c>
       <c r="P38" t="n">
-        <v>669.951727694713</v>
+        <v>921.3014956112874</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.512111304001</v>
+        <v>921.3014956112874</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091843</v>
+        <v>997.7287420164706</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912297</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426627</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114409</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742198</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665504</v>
+        <v>726.0701215665505</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.82473685802549</v>
+        <v>705.0199822253163</v>
       </c>
       <c r="C39" t="n">
-        <v>73.82473685802549</v>
+        <v>515.60770795828</v>
       </c>
       <c r="D39" t="n">
-        <v>73.82473685802549</v>
+        <v>354.8275917193118</v>
       </c>
       <c r="E39" t="n">
-        <v>73.82473685802549</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F39" t="n">
-        <v>73.82473685802549</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>73.82473685802549</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>73.82473685802549</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>73.82473685802549</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
         <v>58.82873859027502</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100245</v>
       </c>
       <c r="Q39" t="n">
-        <v>776.0367500133822</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="R39" t="n">
-        <v>776.0367500133822</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="S39" t="n">
-        <v>776.0367500133822</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="T39" t="n">
-        <v>776.0367500133822</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="U39" t="n">
-        <v>536.4124493376951</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="V39" t="n">
-        <v>293.3327312413292</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="W39" t="n">
-        <v>293.3327312413292</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="X39" t="n">
-        <v>73.82473685802549</v>
+        <v>771.3600410982382</v>
       </c>
       <c r="Y39" t="n">
-        <v>73.82473685802549</v>
+        <v>771.3600410982382</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>478.6394038173171</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641692</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
         <v>190.6703794211881</v>
@@ -7415,28 +7415,28 @@
         <v>422.6396211673109</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9998061668182</v>
+        <v>523.4075114924616</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.506963659183</v>
+        <v>604.3278222156134</v>
       </c>
       <c r="N41" t="n">
-        <v>1323.503382799699</v>
+        <v>679.7150721488516</v>
       </c>
       <c r="O41" t="n">
-        <v>1357.780066433129</v>
+        <v>952.5786025514946</v>
       </c>
       <c r="P41" t="n">
-        <v>1357.780066433129</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1357.780066433129</v>
+        <v>1326.080383469425</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.455079531117</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T41" t="n">
         <v>1403.455079531117</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.2524122579683</v>
+        <v>551.8246959752124</v>
       </c>
       <c r="C42" t="n">
-        <v>522.840137990932</v>
+        <v>362.4124217081761</v>
       </c>
       <c r="D42" t="n">
-        <v>362.0600217519638</v>
+        <v>201.6323054692079</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4968178733783</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292704</v>
+        <v>66.06116862292706</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947454</v>
@@ -7509,31 +7509,31 @@
         <v>785.5081342426765</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="R42" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="S42" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="T42" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="U42" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="V42" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="W42" t="n">
-        <v>752.6250280413807</v>
+        <v>759.540691153167</v>
       </c>
       <c r="X42" t="n">
-        <v>752.6250280413807</v>
+        <v>759.540691153167</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.6250280413807</v>
+        <v>730.3605489021475</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J43" t="n">
         <v>130.1759968085603</v>
@@ -7600,19 +7600,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676714</v>
+        <v>818.5041758676718</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002153</v>
+        <v>708.1923754002157</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173169</v>
+        <v>478.6394038173174</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062234</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06910159062234</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L44" t="n">
-        <v>74.8424398209164</v>
+        <v>707.9998061668182</v>
       </c>
       <c r="M44" t="n">
-        <v>379.0935780212494</v>
+        <v>1027.506963659183</v>
       </c>
       <c r="N44" t="n">
-        <v>693.0676747237009</v>
+        <v>1102.894213592422</v>
       </c>
       <c r="O44" t="n">
-        <v>965.9312051263438</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P44" t="n">
-        <v>1189.624835742181</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1339.432986044274</v>
+        <v>1326.080383469425</v>
       </c>
       <c r="R44" t="n">
-        <v>1385.107999142262</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
         <v>1385.107999142262</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590211</v>
+        <v>952.9389490590215</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>266.1141837648156</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C45" t="n">
-        <v>266.1141837648156</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D45" t="n">
-        <v>266.1141837648156</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E45" t="n">
-        <v>92.55097988623007</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292704</v>
+        <v>66.06116862292706</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947454</v>
@@ -7758,19 +7758,19 @@
         <v>778.5924711308902</v>
       </c>
       <c r="U45" t="n">
-        <v>778.5924711308902</v>
+        <v>540.547388956697</v>
       </c>
       <c r="V45" t="n">
-        <v>535.5127530345243</v>
+        <v>297.467670860331</v>
       </c>
       <c r="W45" t="n">
-        <v>266.1141837648156</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X45" t="n">
-        <v>266.1141837648156</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y45" t="n">
-        <v>266.1141837648156</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="46">
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059338</v>
       </c>
       <c r="R46" t="n">
         <v>130.1759968085603</v>
@@ -7837,19 +7837,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X46" t="n">
-        <v>46.95568750567547</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.4299014976655</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
   </sheetData>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9258,7 +9258,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9486,10 +9486,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.7768813099999</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7575910532782</v>
+        <v>7.195214002696503</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>171.8758480566237</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
         <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154584</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210497</v>
+        <v>67.31313383446667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384204</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.998562388086147</v>
+        <v>16.53078872718774</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550881</v>
+        <v>49.17968824550876</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065517</v>
+        <v>44.13476116065511</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673113</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845969</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X11" t="n">
-        <v>181.453064970151</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938948</v>
+        <v>15.39354104331306</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>195.7575910532782</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
         <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
-        <v>193.149262737081</v>
+        <v>7.489435128315747</v>
       </c>
       <c r="F14" t="n">
         <v>224.8696003154583</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210497</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384206</v>
+        <v>62.66716559384204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550879</v>
+        <v>49.17968824550876</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065514</v>
+        <v>44.13476116065511</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673111</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012118</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>153.281189324003</v>
+        <v>15.39354104331306</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>154338.0991558804</v>
+      </c>
+      <c r="C2" t="n">
+        <v>154338.0991558804</v>
+      </c>
+      <c r="D2" t="n">
         <v>154338.0991558805</v>
-      </c>
-      <c r="C2" t="n">
-        <v>154338.0991558805</v>
-      </c>
-      <c r="D2" t="n">
-        <v>154338.0991558804</v>
       </c>
       <c r="E2" t="n">
         <v>132998.2655785839</v>
@@ -26329,7 +26329,7 @@
         <v>154650.7460502438</v>
       </c>
       <c r="H2" t="n">
-        <v>154650.7460502439</v>
+        <v>154650.7460502438</v>
       </c>
       <c r="I2" t="n">
         <v>154650.7460502439</v>
@@ -26338,22 +26338,22 @@
         <v>154650.746050244</v>
       </c>
       <c r="K2" t="n">
-        <v>154650.746050244</v>
+        <v>154650.7460502441</v>
       </c>
       <c r="L2" t="n">
         <v>154650.746050244</v>
       </c>
       <c r="M2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502439</v>
       </c>
       <c r="N2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502439</v>
       </c>
       <c r="O2" t="n">
         <v>154650.7460502438</v>
       </c>
       <c r="P2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502439</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400486</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243411</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>95275.95397400489</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.1601414597</v>
+        <v>46874.16014145963</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181659995</v>
+        <v>72403.48181660003</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>390006.8734640137</v>
       </c>
       <c r="H4" t="n">
-        <v>390006.8734640137</v>
+        <v>390006.8734640136</v>
       </c>
       <c r="I4" t="n">
         <v>390006.8734640137</v>
@@ -26442,7 +26442,7 @@
         <v>390873.6905933485</v>
       </c>
       <c r="K4" t="n">
-        <v>390873.6905933486</v>
+        <v>390873.6905933485</v>
       </c>
       <c r="L4" t="n">
         <v>390873.6905933486</v>
@@ -26491,7 +26491,7 @@
         <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
         <v>47453.7764795149</v>
@@ -26506,10 +26506,10 @@
         <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-309523.6363518148</v>
+        <v>-309528.1027360201</v>
       </c>
       <c r="C6" t="n">
-        <v>-309523.6363518147</v>
+        <v>-309528.1027360201</v>
       </c>
       <c r="D6" t="n">
-        <v>-309523.6363518148</v>
+        <v>-309528.10273602</v>
       </c>
       <c r="E6" t="n">
-        <v>-495522.4197879473</v>
+        <v>-495831.7409375425</v>
       </c>
       <c r="F6" t="n">
-        <v>-215209.5776037411</v>
+        <v>-215518.8987533362</v>
       </c>
       <c r="G6" t="n">
-        <v>-369308.2202290941</v>
+        <v>-369308.2202290942</v>
       </c>
       <c r="H6" t="n">
         <v>-274032.2662550892</v>
@@ -26546,7 +26546,7 @@
         <v>-427321.7245469606</v>
       </c>
       <c r="K6" t="n">
-        <v>-283676.7210226195</v>
+        <v>-283676.7210226194</v>
       </c>
       <c r="L6" t="n">
         <v>-378952.6749966244</v>
@@ -26558,10 +26558,10 @@
         <v>-276312.9312313084</v>
       </c>
       <c r="O6" t="n">
-        <v>-351988.8795061662</v>
+        <v>-351988.8795061663</v>
       </c>
       <c r="P6" t="n">
-        <v>-279585.3976895662</v>
+        <v>-279585.3976895661</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26814,22 +26814,22 @@
         <v>449.0207715252105</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252107</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
         <v>449.0207715252106</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827794</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827794</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>119.0949424675061</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052657</v>
+        <v>94.37203420052663</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682462</v>
+        <v>58.59270017682454</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406644</v>
+        <v>63.30917227406655</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>119.0949424675061</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052657</v>
+        <v>94.37203420052663</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
         <v>6.684449518273127</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3165808583655</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>12.04236720565642</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>46.53425861258327</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>85.00938635398097</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705462</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245551</v>
+        <v>3.025074842490227</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245551</v>
+        <v>26.40782189532163</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
-        <v>52.08654386482056</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>78.1422065264299</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245551</v>
+        <v>133.3470553603647</v>
       </c>
     </row>
     <row r="13">
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245551</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245551</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245551</v>
+        <v>174.4811554601648</v>
       </c>
       <c r="G13" t="n">
         <v>168.7006242014745</v>
@@ -28269,52 +28269,52 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245551</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
         <v>67.01246855587063</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245551</v>
+        <v>32.12940745055722</v>
       </c>
       <c r="M13" t="n">
-        <v>178.3296493245551</v>
+        <v>25.19323846374668</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984358</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O13" t="n">
-        <v>37.45757960830502</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P13" t="n">
-        <v>101.0732088841139</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>53.21870813085642</v>
+        <v>160.0433975822948</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>70.86490128794124</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490227</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245551</v>
+        <v>48.66568061834851</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245551</v>
+        <v>52.08654386482058</v>
       </c>
       <c r="W15" t="n">
-        <v>78.14220652642993</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>134.0708553763113</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
         <v>168.7006242014745</v>
@@ -28509,49 +28509,49 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>90.3024006530306</v>
+        <v>67.01246855587063</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055722</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245551</v>
+        <v>25.19323846374668</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O16" t="n">
         <v>37.45757960830502</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3296493245551</v>
+        <v>150.4777606972926</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245551</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28582,10 +28582,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>100.3527488800968</v>
+        <v>76.75309993802779</v>
       </c>
       <c r="K17" t="n">
         <v>6.684449518273127</v>
@@ -28606,7 +28606,7 @@
         <v>15.04365268017742</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2378280274713</v>
+        <v>245.4097000958762</v>
       </c>
       <c r="R17" t="n">
         <v>297.4245917920612</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>56.95335191129901</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,10 +28661,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705462</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T18" t="n">
-        <v>96.16502236573409</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
@@ -28819,10 +28819,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>100.3527488800968</v>
+        <v>76.75309993802779</v>
       </c>
       <c r="K20" t="n">
         <v>6.684449518273127</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.6060297307591</v>
+        <v>15.04365268017742</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688962</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4245917920612</v>
+        <v>264.5964638604662</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
@@ -28880,13 +28880,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>80.73710094593663</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28934,16 +28934,16 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>48.66568061834852</v>
+        <v>48.66568061834851</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482058</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>92.75283312404366</v>
+        <v>28.75053738888894</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29059,7 +29059,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>265.3154769886092</v>
+        <v>76.75309993802779</v>
       </c>
       <c r="K23" t="n">
         <v>6.684449518273127</v>
@@ -29077,16 +29077,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>52.13077897057914</v>
+        <v>15.04365268017742</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688962</v>
+        <v>245.4097000958755</v>
       </c>
       <c r="R23" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
         <v>297.4245917920612</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7444246896586</v>
+        <v>101.1595358731031</v>
       </c>
       <c r="H24" t="n">
         <v>125.7337882414754</v>
@@ -29138,7 +29138,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705462</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.873295830499158</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504341</v>
@@ -29408,19 +29408,19 @@
         <v>213.4669766680327</v>
       </c>
       <c r="U27" t="n">
-        <v>9.983389351111896</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>9.983389351111811</v>
       </c>
     </row>
     <row r="28">
@@ -29454,10 +29454,10 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
-        <v>213.4669766680327</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>206.4695708425098</v>
+        <v>67.01246855587063</v>
       </c>
       <c r="L28" t="n">
         <v>32.12940745055722</v>
@@ -29472,10 +29472,10 @@
         <v>37.45757960830502</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460876</v>
+        <v>204.8928850672801</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.204364743505</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R28" t="n">
         <v>203.4231839810568</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>46.92393690768625</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.84650648066847</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
@@ -29654,10 +29654,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680327</v>
+        <v>167.6315650857794</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29697,10 +29697,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="L31" t="n">
-        <v>118.3700270155943</v>
+        <v>32.12940745055722</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374668</v>
+        <v>111.4338580287837</v>
       </c>
       <c r="N31" t="n">
         <v>16.49709222984358</v>
@@ -29828,10 +29828,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>46.92393690768608</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>46.92393690768583</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29928,10 +29928,10 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>206.4695708425096</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>213.4669766680327</v>
+        <v>67.01246855587063</v>
       </c>
       <c r="L34" t="n">
         <v>32.12940745055722</v>
@@ -29943,13 +29943,13 @@
         <v>16.49709222984358</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830502</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P34" t="n">
         <v>58.46036931460876</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.204364743505</v>
+        <v>183.890095360976</v>
       </c>
       <c r="R34" t="n">
         <v>203.4231839810568</v>
@@ -30007,28 +30007,28 @@
         <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802779</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273127</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2125982824127</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>115.4761734348339</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017742</v>
+        <v>20.28119669535744</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688962</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
         <v>272.0596768448573</v>
@@ -30040,7 +30040,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>3.807111287770765</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>162.630550407699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5679242713952</v>
+        <v>67.01246855587063</v>
       </c>
       <c r="L37" t="n">
         <v>32.12940745055722</v>
@@ -30186,7 +30186,7 @@
         <v>58.46036931460876</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.204364743505</v>
+        <v>162.7598204590297</v>
       </c>
       <c r="R37" t="n">
         <v>203.4231839810568</v>
@@ -30241,31 +30241,31 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
+        <v>240.9968149183972</v>
+      </c>
+      <c r="J38" t="n">
         <v>272.0596768448573</v>
       </c>
-      <c r="J38" t="n">
-        <v>201.1484835537357</v>
-      </c>
       <c r="K38" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273127</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2125982824128</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>35.45063757515187</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.835481713589</v>
       </c>
       <c r="P38" t="n">
         <v>15.04365268017742</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448573</v>
+        <v>89.67545097688962</v>
       </c>
       <c r="R38" t="n">
         <v>272.0596768448573</v>
@@ -30274,10 +30274,10 @@
         <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448573</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>111.0738361134731</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.45818464705462</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.629941825992555</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30356,16 +30356,16 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30408,13 +30408,13 @@
         <v>67.01246855587063</v>
       </c>
       <c r="L40" t="n">
-        <v>67.6848631660818</v>
+        <v>32.12940745055722</v>
       </c>
       <c r="M40" t="n">
         <v>25.19323846374668</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984358</v>
+        <v>52.05254794536826</v>
       </c>
       <c r="O40" t="n">
         <v>37.45757960830502</v>
@@ -30487,31 +30487,31 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
+        <v>54.5399516109663</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="N41" t="n">
-        <v>222.8375446538161</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>15.04365268017742</v>
-      </c>
       <c r="Q41" t="n">
-        <v>89.67545097688962</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U41" t="n">
         <v>240.9968149183972</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7816047720875</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.84650648066847</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>194.4959453055162</v>
       </c>
     </row>
     <row r="43">
@@ -30718,25 +30718,25 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802779</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>6.684449518273127</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>225.5866944213951</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096609</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
@@ -30745,7 +30745,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
         <v>240.9968149183972</v>
@@ -30782,10 +30782,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>94.98637960727669</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30830,7 +30830,7 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>1.56342631647891</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.9968149183972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30876,7 +30876,7 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2289512774728</v>
+        <v>185.7935983380495</v>
       </c>
       <c r="K46" t="n">
         <v>67.01246855587063</v>
@@ -30900,7 +30900,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4231839810568</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S46" t="n">
         <v>235.4354176286827</v>
@@ -30918,10 +30918,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X46" t="n">
-        <v>240.9968149183972</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>237.8222970485018</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865273</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>47.24579619221622</v>
+      </c>
+      <c r="M11" t="n">
         <v>188.5623770505817</v>
-      </c>
-      <c r="M11" t="n">
-        <v>93.78005480479969</v>
       </c>
       <c r="N11" t="n">
         <v>76.14873730630121</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276104007</v>
+        <v>81.15717137362334</v>
       </c>
       <c r="P11" t="n">
         <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766548</v>
+        <v>88.65419834766554</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578656</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1469990738444</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233012</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.40276710610846</v>
+        <v>35.55427324171817</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708235</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>146.2002418739979</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608084</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947116</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.8720697162501</v>
       </c>
       <c r="P13" t="n">
-        <v>42.61283956950518</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105018</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865273</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
-        <v>46.53425861258329</v>
+        <v>153.3589480640217</v>
       </c>
       <c r="L14" t="n">
         <v>47.24579619221622</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5623770505817</v>
+        <v>81.73768759914327</v>
       </c>
       <c r="N14" t="n">
         <v>76.14873730630121</v>
@@ -35665,7 +35665,7 @@
         <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766551</v>
+        <v>88.65419834766554</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545072</v>
+        <v>84.50414241545056</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.14699907384446</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.65350811233017</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.40276710610851</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>23.28993209715998</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.2002418739979</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608084</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>161.8325570947116</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099464</v>
+        <v>92.01739138268381</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105015</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366402</v>
       </c>
       <c r="J17" t="n">
-        <v>23.599648942069</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.5623770505817</v>
+        <v>155.7342491189866</v>
       </c>
       <c r="R17" t="n">
         <v>102.5641537403183</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545056</v>
+        <v>84.50414241545072</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.42777687366402</v>
       </c>
       <c r="J20" t="n">
-        <v>23.599648942069</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>34.62291276104007</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>188.5623770505817</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>102.5641537403183</v>
+        <v>69.73602580872327</v>
       </c>
       <c r="S20" t="n">
         <v>69.9152542219973</v>
@@ -36209,7 +36209,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
@@ -36355,7 +36355,7 @@
         <v>56.42777687366402</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36373,16 +36373,16 @@
         <v>34.62291276104007</v>
       </c>
       <c r="P23" t="n">
-        <v>37.08712629040173</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>155.7342491189858</v>
       </c>
       <c r="R23" t="n">
         <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T23" t="n">
         <v>74.96018130685094</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.23802539055993</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>139.4571022866392</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>146.4325157526714</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.2626119245277</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>146.4545081121621</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>86.24061956503705</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497596</v>
@@ -37078,7 +37078,7 @@
         <v>295.204664267176</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743339</v>
+        <v>289.615713974334</v>
       </c>
       <c r="O32" t="n">
         <v>248.0898894290728</v>
@@ -37090,7 +37090,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.24061956503681</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4545081121621</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.0093970597277</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>56.68573061747099</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646014</v>
+        <v>31.06286192646008</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4583944746289</v>
+        <v>47.24579619221622</v>
       </c>
       <c r="M35" t="n">
-        <v>197.2138610339772</v>
+        <v>81.73768759914327</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630121</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O35" t="n">
         <v>34.62291276104007</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>5.237544015180029</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311443</v>
+        <v>77.19923879311438</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479342</v>
+        <v>44.55033927479336</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59526635964706</v>
+        <v>49.59526635964701</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646014</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.3953836157079</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221622</v>
+        <v>260.458394474629</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914327</v>
+        <v>117.1883251742951</v>
       </c>
       <c r="N38" t="n">
         <v>76.14873730630121</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276104007</v>
+        <v>260.458394474629</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679677</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311443</v>
+        <v>77.19923879311438</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479342</v>
+        <v>44.55033927479336</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964706</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357109</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.3123654001241</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>101.7857478031825</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7345025175405</v>
+        <v>81.73768759914327</v>
       </c>
       <c r="N41" t="n">
-        <v>298.9862819601173</v>
+        <v>76.14873730630121</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276104007</v>
+        <v>275.6197276794373</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
         <v>46.1363768666543</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.48747734833329</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1382779979171</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>47.24579619221622</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>307.3243820205384</v>
+        <v>322.7345025175405</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246984</v>
+        <v>76.14873730630121</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794373</v>
+        <v>34.62291276104007</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382198</v>
+        <v>39.49629893078867</v>
       </c>
       <c r="Q44" t="n">
         <v>151.3213639415076</v>
@@ -38041,7 +38041,7 @@
         <v>46.1363768666543</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.48747734833329</v>
       </c>
       <c r="T44" t="n">
         <v>18.53240443318693</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.37989425342911</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.5646470605768</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.57363093734036</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.07735951015468</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>20.68102423433336</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
